--- a/config_1.25/activity_ty_task_config.xlsx
+++ b/config_1.25/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="816">
   <si>
     <t>index|索引</t>
   </si>
@@ -5098,11 +5098,449 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>97,98,99,100,101,102,103,104,270</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除1个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除3个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除5个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除10个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5110,39 +5548,24 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5158,8 +5581,226 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>288</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>588</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>088</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值298元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值888元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1288元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1588元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2088元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5188元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5175,8 +5816,93 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>0000,15000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,100000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,200000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,500000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>8</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,880000,1,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5192,7 +5918,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>98</t>
+      <t>280000,1280000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>580000,1580000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>080000,2080000,1,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5209,25 +5969,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
+      <t>180000,5180000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"","可以在小游戏苹果大战中使用",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","可以在小游戏苹果大战中使用",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5243,833 +6022,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>97,98,99,100,101,102,103,104,270</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除1个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除3个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除5个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除10个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>88</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>288</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>588</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>088</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>188</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值8元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值98元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值298元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值888元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1288元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1588元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2088元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5188元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,15000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,100000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,200000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,300000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,500000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,880000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>280000,1280000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>580000,1580000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>080000,2080000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>180000,5180000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"","可以在小游戏苹果大战中使用",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>79,280,281,282,283,284,285,286,287,288</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -6088,6 +6040,61 @@
   </si>
   <si>
     <t>充值赠礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,66,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可在元宝兑奖中兑换奖励",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6299,7 +6306,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6443,6 +6450,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6724,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6947,7 +6960,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6964,7 +6977,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -7145,13 +7158,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -7169,7 +7182,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7488,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7656,7 +7669,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7668,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -7682,9 +7695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7695,7 +7708,7 @@
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="60" customWidth="1"/>
     <col min="9" max="12" width="28.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="86.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="22.875" style="3" customWidth="1"/>
@@ -7733,7 +7746,7 @@
       <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="57" t="s">
         <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8441,7 +8454,7 @@
       <c r="G22" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="60" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -8479,7 +8492,7 @@
       <c r="G23" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="60" t="s">
         <v>103</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -8517,7 +8530,7 @@
       <c r="G24" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="60" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -8555,7 +8568,7 @@
       <c r="G25" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="60" t="s">
         <v>113</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -8592,7 +8605,7 @@
       <c r="G26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="60" t="s">
         <v>118</v>
       </c>
       <c r="I26" s="5" t="s">
@@ -8629,7 +8642,7 @@
       <c r="G27" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="60" t="s">
         <v>123</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -8666,7 +8679,7 @@
       <c r="G28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="60" t="s">
         <v>128</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -8703,7 +8716,7 @@
       <c r="G29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="60" t="s">
         <v>133</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -8734,7 +8747,7 @@
       <c r="G30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="60" t="s">
         <v>135</v>
       </c>
       <c r="I30" s="5" t="s">
@@ -8987,7 +9000,7 @@
       <c r="G38" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="60" t="s">
         <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
@@ -9016,7 +9029,7 @@
       <c r="G39" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="60" t="s">
         <v>150</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -9045,7 +9058,7 @@
       <c r="G40" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="60" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -9074,7 +9087,7 @@
       <c r="G41" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="60" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -9103,7 +9116,7 @@
       <c r="G42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="60" t="s">
         <v>156</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -9132,7 +9145,7 @@
       <c r="G43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="60" t="s">
         <v>158</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -9161,7 +9174,7 @@
       <c r="G44" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="60" t="s">
         <v>160</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -9190,7 +9203,7 @@
       <c r="G45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="60" t="s">
         <v>162</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -9219,7 +9232,7 @@
       <c r="G46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="60" t="s">
         <v>164</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -9248,7 +9261,7 @@
       <c r="G47" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="60" t="s">
         <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -9277,7 +9290,7 @@
       <c r="G48" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="60" t="s">
         <v>168</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -9306,7 +9319,7 @@
       <c r="G49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="60" t="s">
         <v>170</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -9335,7 +9348,7 @@
       <c r="G50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="60" t="s">
         <v>172</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -9364,7 +9377,7 @@
       <c r="G51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="60" t="s">
         <v>174</v>
       </c>
       <c r="I51" s="5" t="s">
@@ -9393,7 +9406,7 @@
       <c r="G52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="60" t="s">
         <v>176</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -9422,7 +9435,7 @@
       <c r="G53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -9451,7 +9464,7 @@
       <c r="G54" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="60" t="s">
         <v>180</v>
       </c>
       <c r="I54" s="5" t="s">
@@ -9480,7 +9493,7 @@
       <c r="G55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="60" t="s">
         <v>182</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -9509,7 +9522,7 @@
       <c r="G56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="60" t="s">
         <v>140</v>
       </c>
       <c r="I56" s="5" t="s">
@@ -9538,7 +9551,7 @@
       <c r="G57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="60" t="s">
         <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
@@ -9567,7 +9580,7 @@
       <c r="G58" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="60" t="s">
         <v>150</v>
       </c>
       <c r="I58" s="5" t="s">
@@ -9596,7 +9609,7 @@
       <c r="G59" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="60" t="s">
         <v>188</v>
       </c>
       <c r="I59" s="5" t="s">
@@ -9625,7 +9638,7 @@
       <c r="G60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="60" t="s">
         <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
@@ -9741,7 +9754,7 @@
       <c r="G64" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="67" t="s">
         <v>280</v>
       </c>
       <c r="I64" s="50" t="s">
@@ -9770,7 +9783,7 @@
       <c r="G65" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="67" t="s">
         <v>222</v>
       </c>
       <c r="I65" s="50" t="s">
@@ -9799,7 +9812,7 @@
       <c r="G66" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H66" s="50" t="s">
+      <c r="H66" s="67" t="s">
         <v>221</v>
       </c>
       <c r="I66" s="50" t="s">
@@ -9828,7 +9841,7 @@
       <c r="G67" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H67" s="50" t="s">
+      <c r="H67" s="67" t="s">
         <v>223</v>
       </c>
       <c r="I67" s="50" t="s">
@@ -9857,7 +9870,7 @@
       <c r="G68" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="67" t="s">
         <v>224</v>
       </c>
       <c r="I68" s="50" t="s">
@@ -9886,7 +9899,7 @@
       <c r="G69" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H69" s="50" t="s">
+      <c r="H69" s="67" t="s">
         <v>225</v>
       </c>
       <c r="I69" s="50" t="s">
@@ -9915,7 +9928,7 @@
       <c r="G70" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H70" s="50" t="s">
+      <c r="H70" s="67" t="s">
         <v>226</v>
       </c>
       <c r="I70" s="50" t="s">
@@ -9944,7 +9957,7 @@
       <c r="G71" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H71" s="66" t="s">
         <v>221</v>
       </c>
       <c r="I71" s="41" t="s">
@@ -9973,7 +9986,7 @@
       <c r="G72" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="66" t="s">
         <v>227</v>
       </c>
       <c r="I72" s="41" t="s">
@@ -10002,7 +10015,7 @@
       <c r="G73" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H73" s="50" t="s">
+      <c r="H73" s="67" t="s">
         <v>225</v>
       </c>
       <c r="I73" s="50" t="s">
@@ -10031,7 +10044,7 @@
       <c r="G74" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="67" t="s">
         <v>227</v>
       </c>
       <c r="I74" s="50" t="s">
@@ -10060,7 +10073,7 @@
       <c r="G75" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="66" t="s">
         <v>221</v>
       </c>
       <c r="I75" s="41" t="s">
@@ -10089,7 +10102,7 @@
       <c r="G76" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="66" t="s">
         <v>228</v>
       </c>
       <c r="I76" s="41" t="s">
@@ -10118,7 +10131,7 @@
       <c r="G77" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H77" s="41" t="s">
+      <c r="H77" s="66" t="s">
         <v>229</v>
       </c>
       <c r="I77" s="41" t="s">
@@ -10147,7 +10160,7 @@
       <c r="G78" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="66" t="s">
         <v>230</v>
       </c>
       <c r="I78" s="41" t="s">
@@ -10176,7 +10189,7 @@
       <c r="G79" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H79" s="41" t="s">
+      <c r="H79" s="66" t="s">
         <v>231</v>
       </c>
       <c r="I79" s="41" t="s">
@@ -10205,7 +10218,7 @@
       <c r="G80" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H80" s="41" t="s">
+      <c r="H80" s="66" t="s">
         <v>232</v>
       </c>
       <c r="I80" s="41" t="s">
@@ -10234,7 +10247,7 @@
       <c r="G81" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="41" t="s">
+      <c r="H81" s="66" t="s">
         <v>228</v>
       </c>
       <c r="I81" s="41" t="s">
@@ -10263,7 +10276,7 @@
       <c r="G82" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H82" s="41" t="s">
+      <c r="H82" s="66" t="s">
         <v>233</v>
       </c>
       <c r="I82" s="41" t="s">
@@ -10292,7 +10305,7 @@
       <c r="G83" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H83" s="41" t="s">
+      <c r="H83" s="66" t="s">
         <v>233</v>
       </c>
       <c r="I83" s="41" t="s">
@@ -10321,7 +10334,7 @@
       <c r="G84" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="H84" s="41" t="s">
+      <c r="H84" s="66" t="s">
         <v>233</v>
       </c>
       <c r="I84" s="41" t="s">
@@ -10350,7 +10363,7 @@
       <c r="G85" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H85" s="41" t="s">
+      <c r="H85" s="66" t="s">
         <v>243</v>
       </c>
       <c r="I85" s="41" t="s">
@@ -10379,7 +10392,7 @@
       <c r="G86" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H86" s="41" t="s">
+      <c r="H86" s="66" t="s">
         <v>260</v>
       </c>
       <c r="I86" s="41" t="s">
@@ -10408,7 +10421,7 @@
       <c r="G87" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H87" s="41" t="s">
+      <c r="H87" s="66" t="s">
         <v>261</v>
       </c>
       <c r="I87" s="41" t="s">
@@ -10437,7 +10450,7 @@
       <c r="G88" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H88" s="41" t="s">
+      <c r="H88" s="66" t="s">
         <v>262</v>
       </c>
       <c r="I88" s="41" t="s">
@@ -10466,7 +10479,7 @@
       <c r="G89" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H89" s="41" t="s">
+      <c r="H89" s="66" t="s">
         <v>263</v>
       </c>
       <c r="I89" s="41" t="s">
@@ -10495,7 +10508,7 @@
       <c r="G90" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H90" s="41" t="s">
+      <c r="H90" s="66" t="s">
         <v>264</v>
       </c>
       <c r="I90" s="41" t="s">
@@ -10524,7 +10537,7 @@
       <c r="G91" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H91" s="41" t="s">
+      <c r="H91" s="66" t="s">
         <v>265</v>
       </c>
       <c r="I91" s="41" t="s">
@@ -10553,7 +10566,7 @@
       <c r="G92" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="66" t="s">
         <v>266</v>
       </c>
       <c r="I92" s="41" t="s">
@@ -10582,7 +10595,7 @@
       <c r="G93" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="H93" s="66" t="s">
         <v>267</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -10611,7 +10624,7 @@
       <c r="G94" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="H94" s="41" t="s">
+      <c r="H94" s="66" t="s">
         <v>268</v>
       </c>
       <c r="I94" s="41" t="s">
@@ -10640,7 +10653,7 @@
       <c r="G95" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="H95" s="41" t="s">
+      <c r="H95" s="66" t="s">
         <v>286</v>
       </c>
       <c r="I95" s="41" t="s">
@@ -10669,7 +10682,7 @@
       <c r="G96" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="H96" s="66" t="s">
         <v>288</v>
       </c>
       <c r="I96" s="41" t="s">
@@ -10701,7 +10714,7 @@
       <c r="G97" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="H97" s="41" t="s">
+      <c r="H97" s="66" t="s">
         <v>696</v>
       </c>
       <c r="I97" s="41" t="s">
@@ -10713,7 +10726,7 @@
       <c r="K97" s="41"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -10738,7 +10751,7 @@
       <c r="G98" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="H98" s="41" t="s">
+      <c r="H98" s="66" t="s">
         <v>697</v>
       </c>
       <c r="I98" s="41" t="s">
@@ -10772,7 +10785,7 @@
       <c r="G99" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="H99" s="41" t="s">
+      <c r="H99" s="66" t="s">
         <v>698</v>
       </c>
       <c r="I99" s="41" t="s">
@@ -10806,7 +10819,7 @@
       <c r="G100" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H100" s="41" t="s">
+      <c r="H100" s="66" t="s">
         <v>699</v>
       </c>
       <c r="I100" s="41" t="s">
@@ -10840,7 +10853,7 @@
       <c r="G101" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H101" s="41" t="s">
+      <c r="H101" s="66" t="s">
         <v>700</v>
       </c>
       <c r="I101" s="41" t="s">
@@ -10874,7 +10887,7 @@
       <c r="G102" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H102" s="41" t="s">
+      <c r="H102" s="66" t="s">
         <v>701</v>
       </c>
       <c r="I102" s="41" t="s">
@@ -10908,7 +10921,7 @@
       <c r="G103" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="H103" s="41" t="s">
+      <c r="H103" s="66" t="s">
         <v>702</v>
       </c>
       <c r="I103" s="41" t="s">
@@ -10942,7 +10955,7 @@
       <c r="G104" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="H104" s="41" t="s">
+      <c r="H104" s="66" t="s">
         <v>703</v>
       </c>
       <c r="I104" s="41" t="s">
@@ -10976,7 +10989,7 @@
       <c r="G105" s="41" t="s">
         <v>710</v>
       </c>
-      <c r="H105" s="41" t="s">
+      <c r="H105" s="66" t="s">
         <v>704</v>
       </c>
       <c r="I105" s="41" t="s">
@@ -11007,7 +11020,7 @@
       <c r="G106" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="H106" s="41" t="s">
+      <c r="H106" s="66" t="s">
         <v>312</v>
       </c>
       <c r="I106" s="41" t="s">
@@ -11036,7 +11049,7 @@
       <c r="G107" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="H107" s="41" t="s">
+      <c r="H107" s="66" t="s">
         <v>314</v>
       </c>
       <c r="I107" s="41" t="s">
@@ -11065,7 +11078,7 @@
       <c r="G108" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="H108" s="41" t="s">
+      <c r="H108" s="66" t="s">
         <v>315</v>
       </c>
       <c r="I108" s="41" t="s">
@@ -11094,7 +11107,7 @@
       <c r="G109" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="H109" s="41" t="s">
+      <c r="H109" s="66" t="s">
         <v>316</v>
       </c>
       <c r="I109" s="41" t="s">
@@ -11123,7 +11136,7 @@
       <c r="G110" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H110" s="41" t="s">
+      <c r="H110" s="66" t="s">
         <v>317</v>
       </c>
       <c r="I110" s="41" t="s">
@@ -11152,7 +11165,7 @@
       <c r="G111" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H111" s="42" t="s">
+      <c r="H111" s="64" t="s">
         <v>318</v>
       </c>
       <c r="I111" s="41" t="s">
@@ -11181,7 +11194,7 @@
       <c r="G112" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H112" s="42" t="s">
+      <c r="H112" s="64" t="s">
         <v>319</v>
       </c>
       <c r="I112" s="41" t="s">
@@ -11210,7 +11223,7 @@
       <c r="G113" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H113" s="42" t="s">
+      <c r="H113" s="64" t="s">
         <v>320</v>
       </c>
       <c r="I113" s="41" t="s">
@@ -11239,7 +11252,7 @@
       <c r="G114" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H114" s="42" t="s">
+      <c r="H114" s="64" t="s">
         <v>321</v>
       </c>
       <c r="I114" s="41" t="s">
@@ -11268,7 +11281,7 @@
       <c r="G115" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H115" s="42" t="s">
+      <c r="H115" s="64" t="s">
         <v>314</v>
       </c>
       <c r="I115" s="41" t="s">
@@ -11297,7 +11310,7 @@
       <c r="G116" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H116" s="42" t="s">
+      <c r="H116" s="64" t="s">
         <v>322</v>
       </c>
       <c r="I116" s="41" t="s">
@@ -11326,7 +11339,7 @@
       <c r="G117" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H117" s="42" t="s">
+      <c r="H117" s="64" t="s">
         <v>323</v>
       </c>
       <c r="I117" s="41" t="s">
@@ -11358,7 +11371,7 @@
       <c r="G118" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="H118" s="42" t="s">
+      <c r="H118" s="64" t="s">
         <v>331</v>
       </c>
       <c r="I118" s="42" t="s">
@@ -11390,7 +11403,7 @@
       <c r="G119" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="H119" s="42" t="s">
+      <c r="H119" s="64" t="s">
         <v>332</v>
       </c>
       <c r="I119" s="42" t="s">
@@ -11422,7 +11435,7 @@
       <c r="G120" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="H120" s="42" t="s">
+      <c r="H120" s="64" t="s">
         <v>333</v>
       </c>
       <c r="I120" s="42" t="s">
@@ -11451,7 +11464,7 @@
       <c r="G121" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="60" t="s">
         <v>340</v>
       </c>
       <c r="I121" s="3" t="s">
@@ -11477,7 +11490,7 @@
       <c r="G122" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="60" t="s">
         <v>344</v>
       </c>
       <c r="I122" s="3" t="s">
@@ -11503,7 +11516,7 @@
       <c r="G123" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H123" s="42" t="s">
+      <c r="H123" s="64" t="s">
         <v>352</v>
       </c>
       <c r="I123" s="42" t="s">
@@ -11532,7 +11545,7 @@
       <c r="G124" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H124" s="42" t="s">
+      <c r="H124" s="64" t="s">
         <v>353</v>
       </c>
       <c r="I124" s="42" t="s">
@@ -11561,7 +11574,7 @@
       <c r="G125" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H125" s="42" t="s">
+      <c r="H125" s="64" t="s">
         <v>354</v>
       </c>
       <c r="I125" s="42" t="s">
@@ -11590,7 +11603,7 @@
       <c r="G126" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H126" s="42" t="s">
+      <c r="H126" s="64" t="s">
         <v>355</v>
       </c>
       <c r="I126" s="42" t="s">
@@ -11619,7 +11632,7 @@
       <c r="G127" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H127" s="42" t="s">
+      <c r="H127" s="64" t="s">
         <v>356</v>
       </c>
       <c r="I127" s="42" t="s">
@@ -11648,7 +11661,7 @@
       <c r="G128" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H128" s="42" t="s">
+      <c r="H128" s="64" t="s">
         <v>357</v>
       </c>
       <c r="I128" s="42" t="s">
@@ -11677,7 +11690,7 @@
       <c r="G129" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H129" s="42" t="s">
+      <c r="H129" s="64" t="s">
         <v>358</v>
       </c>
       <c r="I129" s="42" t="s">
@@ -11706,7 +11719,7 @@
       <c r="G130" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="60" t="s">
         <v>340</v>
       </c>
       <c r="I130" s="3" t="s">
@@ -11732,7 +11745,7 @@
       <c r="G131" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="60" t="s">
         <v>344</v>
       </c>
       <c r="I131" s="42" t="s">
@@ -11759,7 +11772,7 @@
       <c r="G132" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H132" s="42" t="s">
+      <c r="H132" s="64" t="s">
         <v>352</v>
       </c>
       <c r="I132" s="42" t="s">
@@ -11788,7 +11801,7 @@
       <c r="G133" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H133" s="42" t="s">
+      <c r="H133" s="64" t="s">
         <v>353</v>
       </c>
       <c r="I133" s="42" t="s">
@@ -11817,7 +11830,7 @@
       <c r="G134" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H134" s="42" t="s">
+      <c r="H134" s="64" t="s">
         <v>354</v>
       </c>
       <c r="I134" s="42" t="s">
@@ -11846,7 +11859,7 @@
       <c r="G135" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H135" s="42" t="s">
+      <c r="H135" s="64" t="s">
         <v>355</v>
       </c>
       <c r="I135" s="42" t="s">
@@ -11875,7 +11888,7 @@
       <c r="G136" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H136" s="42" t="s">
+      <c r="H136" s="64" t="s">
         <v>356</v>
       </c>
       <c r="I136" s="42" t="s">
@@ -11904,7 +11917,7 @@
       <c r="G137" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H137" s="42" t="s">
+      <c r="H137" s="64" t="s">
         <v>265</v>
       </c>
       <c r="I137" s="42" t="s">
@@ -11933,7 +11946,7 @@
       <c r="G138" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H138" s="42" t="s">
+      <c r="H138" s="64" t="s">
         <v>358</v>
       </c>
       <c r="I138" s="42" t="s">
@@ -11962,7 +11975,7 @@
       <c r="G139" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H139" s="54" t="s">
+      <c r="H139" s="68" t="s">
         <v>383</v>
       </c>
       <c r="I139" s="54" t="s">
@@ -11991,7 +12004,7 @@
       <c r="G140" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H140" s="54" t="s">
+      <c r="H140" s="68" t="s">
         <v>423</v>
       </c>
       <c r="I140" s="54" t="s">
@@ -12020,7 +12033,7 @@
       <c r="G141" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H141" s="54" t="s">
+      <c r="H141" s="68" t="s">
         <v>384</v>
       </c>
       <c r="I141" s="54" t="s">
@@ -12049,7 +12062,7 @@
       <c r="G142" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H142" s="54" t="s">
+      <c r="H142" s="68" t="s">
         <v>385</v>
       </c>
       <c r="I142" s="54" t="s">
@@ -12078,7 +12091,7 @@
       <c r="G143" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H143" s="54" t="s">
+      <c r="H143" s="68" t="s">
         <v>422</v>
       </c>
       <c r="I143" s="54" t="s">
@@ -12107,7 +12120,7 @@
       <c r="G144" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H144" s="54" t="s">
+      <c r="H144" s="68" t="s">
         <v>386</v>
       </c>
       <c r="I144" s="54" t="s">
@@ -12136,7 +12149,7 @@
       <c r="G145" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H145" s="54" t="s">
+      <c r="H145" s="68" t="s">
         <v>387</v>
       </c>
       <c r="I145" s="54" t="s">
@@ -12165,7 +12178,7 @@
       <c r="G146" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H146" s="54" t="s">
+      <c r="H146" s="68" t="s">
         <v>388</v>
       </c>
       <c r="I146" s="54" t="s">
@@ -12194,7 +12207,7 @@
       <c r="G147" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H147" s="54" t="s">
+      <c r="H147" s="68" t="s">
         <v>389</v>
       </c>
       <c r="I147" s="54" t="s">
@@ -12223,7 +12236,7 @@
       <c r="G148" s="54" t="s">
         <v>694</v>
       </c>
-      <c r="H148" s="54" t="s">
+      <c r="H148" s="68" t="s">
         <v>383</v>
       </c>
       <c r="I148" s="54" t="s">
@@ -12252,7 +12265,7 @@
       <c r="G149" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H149" s="54" t="s">
+      <c r="H149" s="68" t="s">
         <v>421</v>
       </c>
       <c r="I149" s="54" t="s">
@@ -12281,7 +12294,7 @@
       <c r="G150" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H150" s="54" t="s">
+      <c r="H150" s="68" t="s">
         <v>384</v>
       </c>
       <c r="I150" s="54" t="s">
@@ -12310,7 +12323,7 @@
       <c r="G151" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H151" s="54" t="s">
+      <c r="H151" s="68" t="s">
         <v>385</v>
       </c>
       <c r="I151" s="54" t="s">
@@ -12339,7 +12352,7 @@
       <c r="G152" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H152" s="54" t="s">
+      <c r="H152" s="68" t="s">
         <v>420</v>
       </c>
       <c r="I152" s="54" t="s">
@@ -12368,7 +12381,7 @@
       <c r="G153" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H153" s="54" t="s">
+      <c r="H153" s="68" t="s">
         <v>386</v>
       </c>
       <c r="I153" s="54" t="s">
@@ -12397,7 +12410,7 @@
       <c r="G154" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H154" s="54" t="s">
+      <c r="H154" s="68" t="s">
         <v>387</v>
       </c>
       <c r="I154" s="54" t="s">
@@ -12426,7 +12439,7 @@
       <c r="G155" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H155" s="54" t="s">
+      <c r="H155" s="68" t="s">
         <v>388</v>
       </c>
       <c r="I155" s="54" t="s">
@@ -12455,7 +12468,7 @@
       <c r="G156" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H156" s="54" t="s">
+      <c r="H156" s="68" t="s">
         <v>389</v>
       </c>
       <c r="I156" s="54" t="s">
@@ -12484,7 +12497,7 @@
       <c r="G157" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H157" s="54" t="s">
+      <c r="H157" s="68" t="s">
         <v>352</v>
       </c>
       <c r="I157" s="54" t="s">
@@ -12513,7 +12526,7 @@
       <c r="G158" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="H158" s="54" t="s">
+      <c r="H158" s="68" t="s">
         <v>353</v>
       </c>
       <c r="I158" s="54" t="s">
@@ -12542,7 +12555,7 @@
       <c r="G159" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="H159" s="54" t="s">
+      <c r="H159" s="68" t="s">
         <v>262</v>
       </c>
       <c r="I159" s="54" t="s">
@@ -12571,7 +12584,7 @@
       <c r="G160" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H160" s="54" t="s">
+      <c r="H160" s="68" t="s">
         <v>355</v>
       </c>
       <c r="I160" s="54" t="s">
@@ -12600,7 +12613,7 @@
       <c r="G161" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H161" s="54" t="s">
+      <c r="H161" s="68" t="s">
         <v>409</v>
       </c>
       <c r="I161" s="54" t="s">
@@ -12629,7 +12642,7 @@
       <c r="G162" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H162" s="54" t="s">
+      <c r="H162" s="68" t="s">
         <v>410</v>
       </c>
       <c r="I162" s="54" t="s">
@@ -12658,7 +12671,7 @@
       <c r="G163" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H163" s="54" t="s">
+      <c r="H163" s="68" t="s">
         <v>352</v>
       </c>
       <c r="I163" s="54" t="s">
@@ -12687,7 +12700,7 @@
       <c r="G164" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H164" s="54" t="s">
+      <c r="H164" s="68" t="s">
         <v>353</v>
       </c>
       <c r="I164" s="54" t="s">
@@ -12716,7 +12729,7 @@
       <c r="G165" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H165" s="54" t="s">
+      <c r="H165" s="68" t="s">
         <v>262</v>
       </c>
       <c r="I165" s="54" t="s">
@@ -12745,7 +12758,7 @@
       <c r="G166" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H166" s="54" t="s">
+      <c r="H166" s="68" t="s">
         <v>355</v>
       </c>
       <c r="I166" s="54" t="s">
@@ -12774,7 +12787,7 @@
       <c r="G167" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H167" s="54" t="s">
+      <c r="H167" s="68" t="s">
         <v>409</v>
       </c>
       <c r="I167" s="54" t="s">
@@ -12803,7 +12816,7 @@
       <c r="G168" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="H168" s="54" t="s">
+      <c r="H168" s="68" t="s">
         <v>410</v>
       </c>
       <c r="I168" s="54" t="s">
@@ -12830,10 +12843,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H169" s="42" t="s">
-        <v>723</v>
+        <v>803</v>
+      </c>
+      <c r="H169" s="64" t="s">
+        <v>806</v>
       </c>
       <c r="I169" s="42" t="s">
         <v>432</v>
@@ -12841,7 +12854,9 @@
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
       <c r="L169" s="42"/>
-      <c r="M169" s="42"/>
+      <c r="M169" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
@@ -12860,10 +12875,10 @@
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H170" s="42" t="s">
-        <v>724</v>
+        <v>803</v>
+      </c>
+      <c r="H170" s="64" t="s">
+        <v>807</v>
       </c>
       <c r="I170" s="42" t="s">
         <v>432</v>
@@ -12871,6 +12886,9 @@
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
       <c r="L170" s="42"/>
+      <c r="M170" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
@@ -12889,10 +12907,10 @@
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H171" s="42" t="s">
-        <v>725</v>
+        <v>802</v>
+      </c>
+      <c r="H171" s="64" t="s">
+        <v>808</v>
       </c>
       <c r="I171" s="42" t="s">
         <v>432</v>
@@ -12900,6 +12918,9 @@
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
       <c r="L171" s="42"/>
+      <c r="M171" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
@@ -12918,10 +12939,10 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H172" s="42" t="s">
-        <v>726</v>
+        <v>802</v>
+      </c>
+      <c r="H172" s="64" t="s">
+        <v>809</v>
       </c>
       <c r="I172" s="42" t="s">
         <v>432</v>
@@ -12929,6 +12950,9 @@
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
       <c r="L172" s="42"/>
+      <c r="M172" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
@@ -12947,10 +12971,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H173" s="42" t="s">
-        <v>727</v>
+        <v>802</v>
+      </c>
+      <c r="H173" s="64" t="s">
+        <v>810</v>
       </c>
       <c r="I173" s="42" t="s">
         <v>432</v>
@@ -12958,6 +12982,9 @@
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
       <c r="L173" s="42"/>
+      <c r="M173" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
@@ -12976,10 +13003,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H174" s="42" t="s">
-        <v>728</v>
+        <v>802</v>
+      </c>
+      <c r="H174" s="64" t="s">
+        <v>811</v>
       </c>
       <c r="I174" s="42" t="s">
         <v>432</v>
@@ -12987,6 +13014,9 @@
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
+      <c r="M174" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
@@ -13005,10 +13035,10 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H175" s="42" t="s">
-        <v>729</v>
+        <v>802</v>
+      </c>
+      <c r="H175" s="64" t="s">
+        <v>812</v>
       </c>
       <c r="I175" s="42" t="s">
         <v>432</v>
@@ -13016,6 +13046,9 @@
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
+      <c r="M175" s="42" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
@@ -13034,10 +13067,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="H176" s="42" t="s">
-        <v>730</v>
+        <v>804</v>
+      </c>
+      <c r="H176" s="64" t="s">
+        <v>813</v>
       </c>
       <c r="I176" s="42" t="s">
         <v>432</v>
@@ -13063,10 +13096,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>721</v>
-      </c>
-      <c r="H177" s="42" t="s">
-        <v>731</v>
+        <v>805</v>
+      </c>
+      <c r="H177" s="64" t="s">
+        <v>814</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -13094,7 +13127,7 @@
       <c r="G178" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H178" s="42" t="s">
+      <c r="H178" s="64" t="s">
         <v>449</v>
       </c>
       <c r="K178" s="42" t="s">
@@ -13121,7 +13154,7 @@
       <c r="G179" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H179" s="42" t="s">
+      <c r="H179" s="64" t="s">
         <v>449</v>
       </c>
       <c r="K179" s="42" t="s">
@@ -13148,7 +13181,7 @@
       <c r="G180" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H180" s="42" t="s">
+      <c r="H180" s="64" t="s">
         <v>449</v>
       </c>
       <c r="K180" s="42" t="s">
@@ -13175,7 +13208,7 @@
       <c r="G181" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H181" s="42" t="s">
+      <c r="H181" s="64" t="s">
         <v>450</v>
       </c>
       <c r="I181" s="42" t="s">
@@ -13205,7 +13238,7 @@
       <c r="G182" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H182" s="42" t="s">
+      <c r="H182" s="64" t="s">
         <v>451</v>
       </c>
       <c r="I182" s="42" t="s">
@@ -13235,7 +13268,7 @@
       <c r="G183" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H183" s="42" t="s">
+      <c r="H183" s="64" t="s">
         <v>452</v>
       </c>
       <c r="I183" s="42" t="s">
@@ -13265,7 +13298,7 @@
       <c r="G184" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H184" s="42" t="s">
+      <c r="H184" s="64" t="s">
         <v>464</v>
       </c>
       <c r="I184" s="42" t="s">
@@ -13292,7 +13325,7 @@
       <c r="G185" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H185" s="42" t="s">
+      <c r="H185" s="64" t="s">
         <v>465</v>
       </c>
       <c r="I185" s="42" t="s">
@@ -13319,7 +13352,7 @@
       <c r="G186" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H186" s="42" t="s">
+      <c r="H186" s="64" t="s">
         <v>466</v>
       </c>
       <c r="I186" s="42" t="s">
@@ -13346,7 +13379,7 @@
       <c r="G187" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H187" s="42" t="s">
+      <c r="H187" s="64" t="s">
         <v>467</v>
       </c>
       <c r="I187" s="42" t="s">
@@ -13373,7 +13406,7 @@
       <c r="G188" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H188" s="42" t="s">
+      <c r="H188" s="64" t="s">
         <v>536</v>
       </c>
       <c r="I188" s="42" t="s">
@@ -13400,7 +13433,7 @@
       <c r="G189" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H189" s="42" t="s">
+      <c r="H189" s="64" t="s">
         <v>537</v>
       </c>
       <c r="I189" s="42" t="s">
@@ -13427,7 +13460,7 @@
       <c r="G190" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H190" s="42" t="s">
+      <c r="H190" s="64" t="s">
         <v>536</v>
       </c>
       <c r="I190" s="42" t="s">
@@ -13454,7 +13487,7 @@
       <c r="G191" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H191" s="42" t="s">
+      <c r="H191" s="64" t="s">
         <v>536</v>
       </c>
       <c r="I191" s="42" t="s">
@@ -13481,7 +13514,7 @@
       <c r="G192" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H192" s="42" t="s">
+      <c r="H192" s="64" t="s">
         <v>538</v>
       </c>
       <c r="I192" s="42" t="s">
@@ -13508,7 +13541,7 @@
       <c r="G193" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H193" s="42" t="s">
+      <c r="H193" s="64" t="s">
         <v>539</v>
       </c>
       <c r="I193" s="42" t="s">
@@ -13535,7 +13568,7 @@
       <c r="G194" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H194" s="42" t="s">
+      <c r="H194" s="64" t="s">
         <v>540</v>
       </c>
       <c r="I194" s="42" t="s">
@@ -13562,7 +13595,7 @@
       <c r="G195" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H195" s="42" t="s">
+      <c r="H195" s="64" t="s">
         <v>541</v>
       </c>
       <c r="I195" s="42" t="s">
@@ -13589,7 +13622,7 @@
       <c r="G196" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H196" s="42" t="s">
+      <c r="H196" s="64" t="s">
         <v>542</v>
       </c>
       <c r="I196" s="42" t="s">
@@ -13616,7 +13649,7 @@
       <c r="G197" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H197" s="42" t="s">
+      <c r="H197" s="64" t="s">
         <v>543</v>
       </c>
       <c r="I197" s="42" t="s">
@@ -13643,7 +13676,7 @@
       <c r="G198" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H198" s="42" t="s">
+      <c r="H198" s="64" t="s">
         <v>544</v>
       </c>
       <c r="I198" s="42" t="s">
@@ -13670,7 +13703,7 @@
       <c r="G199" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H199" s="42" t="s">
+      <c r="H199" s="64" t="s">
         <v>545</v>
       </c>
       <c r="I199" s="42" t="s">
@@ -13697,7 +13730,7 @@
       <c r="G200" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H200" s="42" t="s">
+      <c r="H200" s="64" t="s">
         <v>546</v>
       </c>
       <c r="I200" s="42" t="s">
@@ -13724,7 +13757,7 @@
       <c r="G201" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H201" s="42" t="s">
+      <c r="H201" s="64" t="s">
         <v>547</v>
       </c>
       <c r="I201" s="42" t="s">
@@ -13751,7 +13784,7 @@
       <c r="G202" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H202" s="42" t="s">
+      <c r="H202" s="64" t="s">
         <v>548</v>
       </c>
       <c r="I202" s="42" t="s">
@@ -13778,7 +13811,7 @@
       <c r="G203" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H203" s="42" t="s">
+      <c r="H203" s="64" t="s">
         <v>549</v>
       </c>
       <c r="I203" s="42" t="s">
@@ -13805,7 +13838,7 @@
       <c r="G204" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H204" s="42" t="s">
+      <c r="H204" s="64" t="s">
         <v>550</v>
       </c>
       <c r="I204" s="42" t="s">
@@ -13832,7 +13865,7 @@
       <c r="G205" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H205" s="42" t="s">
+      <c r="H205" s="64" t="s">
         <v>551</v>
       </c>
       <c r="I205" s="42" t="s">
@@ -13859,7 +13892,7 @@
       <c r="G206" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H206" s="42" t="s">
+      <c r="H206" s="64" t="s">
         <v>552</v>
       </c>
       <c r="I206" s="42" t="s">
@@ -13886,7 +13919,7 @@
       <c r="G207" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H207" s="42" t="s">
+      <c r="H207" s="64" t="s">
         <v>553</v>
       </c>
       <c r="I207" s="42" t="s">
@@ -13913,7 +13946,7 @@
       <c r="G208" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H208" s="42" t="s">
+      <c r="H208" s="64" t="s">
         <v>554</v>
       </c>
       <c r="I208" s="42" t="s">
@@ -13940,7 +13973,7 @@
       <c r="G209" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H209" s="42" t="s">
+      <c r="H209" s="64" t="s">
         <v>555</v>
       </c>
       <c r="I209" s="42" t="s">
@@ -13967,7 +14000,7 @@
       <c r="G210" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H210" s="42" t="s">
+      <c r="H210" s="64" t="s">
         <v>556</v>
       </c>
       <c r="I210" s="42" t="s">
@@ -13994,7 +14027,7 @@
       <c r="G211" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H211" s="42" t="s">
+      <c r="H211" s="64" t="s">
         <v>557</v>
       </c>
       <c r="I211" s="42" t="s">
@@ -14021,7 +14054,7 @@
       <c r="G212" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H212" s="42" t="s">
+      <c r="H212" s="64" t="s">
         <v>558</v>
       </c>
       <c r="I212" s="42" t="s">
@@ -14048,7 +14081,7 @@
       <c r="G213" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H213" s="42" t="s">
+      <c r="H213" s="64" t="s">
         <v>559</v>
       </c>
       <c r="I213" s="42" t="s">
@@ -14075,7 +14108,7 @@
       <c r="G214" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H214" s="42" t="s">
+      <c r="H214" s="64" t="s">
         <v>560</v>
       </c>
       <c r="I214" s="42" t="s">
@@ -14102,7 +14135,7 @@
       <c r="G215" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H215" s="42" t="s">
+      <c r="H215" s="64" t="s">
         <v>561</v>
       </c>
       <c r="I215" s="42" t="s">
@@ -14132,7 +14165,7 @@
       <c r="G216" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H216" s="42" t="s">
+      <c r="H216" s="64" t="s">
         <v>562</v>
       </c>
       <c r="I216" s="42" t="s">
@@ -14162,7 +14195,7 @@
       <c r="G217" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H217" s="42" t="s">
+      <c r="H217" s="64" t="s">
         <v>563</v>
       </c>
       <c r="I217" s="42" t="s">
@@ -14192,7 +14225,7 @@
       <c r="G218" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H218" s="42" t="s">
+      <c r="H218" s="64" t="s">
         <v>564</v>
       </c>
       <c r="I218" s="42" t="s">
@@ -14222,7 +14255,7 @@
       <c r="G219" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H219" s="42" t="s">
+      <c r="H219" s="64" t="s">
         <v>565</v>
       </c>
       <c r="I219" s="42" t="s">
@@ -14252,7 +14285,7 @@
       <c r="G220" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H220" s="42" t="s">
+      <c r="H220" s="64" t="s">
         <v>566</v>
       </c>
       <c r="I220" s="42" t="s">
@@ -14282,7 +14315,7 @@
       <c r="G221" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H221" s="42" t="s">
+      <c r="H221" s="64" t="s">
         <v>567</v>
       </c>
       <c r="I221" s="42" t="s">
@@ -14312,7 +14345,7 @@
       <c r="G222" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H222" s="42" t="s">
+      <c r="H222" s="64" t="s">
         <v>568</v>
       </c>
       <c r="I222" s="42" t="s">
@@ -14342,7 +14375,7 @@
       <c r="G223" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H223" s="42" t="s">
+      <c r="H223" s="64" t="s">
         <v>569</v>
       </c>
       <c r="I223" s="42" t="s">
@@ -14372,7 +14405,7 @@
       <c r="G224" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H224" s="42" t="s">
+      <c r="H224" s="64" t="s">
         <v>570</v>
       </c>
       <c r="I224" s="42" t="s">
@@ -14402,7 +14435,7 @@
       <c r="G225" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H225" s="42" t="s">
+      <c r="H225" s="64" t="s">
         <v>571</v>
       </c>
       <c r="I225" s="42" t="s">
@@ -14432,7 +14465,7 @@
       <c r="G226" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H226" s="42" t="s">
+      <c r="H226" s="64" t="s">
         <v>572</v>
       </c>
       <c r="I226" s="42" t="s">
@@ -14462,7 +14495,7 @@
       <c r="G227" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H227" s="42" t="s">
+      <c r="H227" s="64" t="s">
         <v>573</v>
       </c>
       <c r="I227" s="42" t="s">
@@ -14492,7 +14525,7 @@
       <c r="G228" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H228" s="42" t="s">
+      <c r="H228" s="64" t="s">
         <v>574</v>
       </c>
       <c r="I228" s="42" t="s">
@@ -14522,7 +14555,7 @@
       <c r="G229" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H229" s="42" t="s">
+      <c r="H229" s="64" t="s">
         <v>575</v>
       </c>
       <c r="I229" s="42" t="s">
@@ -14552,7 +14585,7 @@
       <c r="G230" s="42" t="s">
         <v>628</v>
       </c>
-      <c r="H230" s="42" t="s">
+      <c r="H230" s="64" t="s">
         <v>576</v>
       </c>
       <c r="I230" s="42" t="s">
@@ -14579,8 +14612,8 @@
       <c r="G231" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H231" s="42" t="s">
-        <v>763</v>
+      <c r="H231" s="64" t="s">
+        <v>751</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>338</v>
@@ -14605,8 +14638,8 @@
       <c r="G232" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H232" s="42" t="s">
-        <v>764</v>
+      <c r="H232" s="64" t="s">
+        <v>752</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
@@ -14630,9 +14663,9 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H233" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="H233" s="64" t="s">
         <v>288</v>
       </c>
       <c r="I233" s="42" t="s">
@@ -14657,10 +14690,10 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H234" s="42" t="s">
-        <v>765</v>
+        <v>760</v>
+      </c>
+      <c r="H234" s="64" t="s">
+        <v>753</v>
       </c>
       <c r="I234" s="42" t="s">
         <v>619</v>
@@ -14684,10 +14717,10 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H235" s="42" t="s">
-        <v>766</v>
+        <v>760</v>
+      </c>
+      <c r="H235" s="64" t="s">
+        <v>754</v>
       </c>
       <c r="I235" s="42" t="s">
         <v>620</v>
@@ -14711,9 +14744,9 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H236" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="H236" s="64" t="s">
         <v>627</v>
       </c>
       <c r="I236" s="42" t="s">
@@ -14738,9 +14771,9 @@
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H237" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="H237" s="64" t="s">
         <v>288</v>
       </c>
       <c r="I237" s="42" t="s">
@@ -14765,10 +14798,10 @@
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H238" s="42" t="s">
-        <v>767</v>
+        <v>760</v>
+      </c>
+      <c r="H238" s="64" t="s">
+        <v>755</v>
       </c>
       <c r="I238" s="42" t="s">
         <v>615</v>
@@ -14792,10 +14825,10 @@
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H239" s="42" t="s">
-        <v>768</v>
+        <v>760</v>
+      </c>
+      <c r="H239" s="64" t="s">
+        <v>756</v>
       </c>
       <c r="I239" s="42" t="s">
         <v>616</v>
@@ -14819,10 +14852,10 @@
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H240" s="42" t="s">
-        <v>769</v>
+        <v>760</v>
+      </c>
+      <c r="H240" s="64" t="s">
+        <v>757</v>
       </c>
       <c r="I240" s="42" t="s">
         <v>617</v>
@@ -14848,8 +14881,8 @@
       <c r="G241" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H241" s="42" t="s">
-        <v>770</v>
+      <c r="H241" s="64" t="s">
+        <v>758</v>
       </c>
       <c r="I241" s="42" t="s">
         <v>671</v>
@@ -14875,8 +14908,8 @@
       <c r="G242" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H242" s="42" t="s">
-        <v>763</v>
+      <c r="H242" s="64" t="s">
+        <v>751</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>338</v>
@@ -14901,8 +14934,8 @@
       <c r="G243" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H243" s="42" t="s">
-        <v>764</v>
+      <c r="H243" s="64" t="s">
+        <v>752</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
@@ -14920,15 +14953,15 @@
         <v>598</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H244" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="H244" s="64" t="s">
         <v>288</v>
       </c>
       <c r="I244" s="42" t="s">
@@ -14944,19 +14977,19 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H245" s="42" t="s">
-        <v>765</v>
+        <v>760</v>
+      </c>
+      <c r="H245" s="64" t="s">
+        <v>753</v>
       </c>
       <c r="I245" s="42" t="s">
         <v>615</v>
@@ -14971,19 +15004,19 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H246" s="42" t="s">
-        <v>766</v>
+        <v>760</v>
+      </c>
+      <c r="H246" s="64" t="s">
+        <v>754</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>616</v>
@@ -15001,15 +15034,15 @@
         <v>592</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H247" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="H247" s="64" t="s">
         <v>627</v>
       </c>
       <c r="I247" s="42" t="s">
@@ -15034,9 +15067,9 @@
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H248" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="H248" s="64" t="s">
         <v>288</v>
       </c>
       <c r="I248" s="42" t="s">
@@ -15061,10 +15094,10 @@
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H249" s="42" t="s">
-        <v>767</v>
+        <v>760</v>
+      </c>
+      <c r="H249" s="64" t="s">
+        <v>755</v>
       </c>
       <c r="I249" s="42" t="s">
         <v>615</v>
@@ -15088,10 +15121,10 @@
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H250" s="42" t="s">
-        <v>768</v>
+        <v>760</v>
+      </c>
+      <c r="H250" s="64" t="s">
+        <v>756</v>
       </c>
       <c r="I250" s="42" t="s">
         <v>616</v>
@@ -15115,10 +15148,10 @@
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="H251" s="42" t="s">
-        <v>769</v>
+        <v>760</v>
+      </c>
+      <c r="H251" s="64" t="s">
+        <v>757</v>
       </c>
       <c r="I251" s="42" t="s">
         <v>617</v>
@@ -15144,8 +15177,8 @@
       <c r="G252" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H252" s="42" t="s">
-        <v>770</v>
+      <c r="H252" s="64" t="s">
+        <v>758</v>
       </c>
       <c r="I252" s="42" t="s">
         <v>673</v>
@@ -15171,7 +15204,7 @@
       <c r="G253" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H253" s="42" t="s">
+      <c r="H253" s="64" t="s">
         <v>661</v>
       </c>
       <c r="I253" s="3" t="s">
@@ -15197,7 +15230,7 @@
       <c r="G254" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="H254" s="42" t="s">
+      <c r="H254" s="64" t="s">
         <v>663</v>
       </c>
       <c r="I254" s="42" t="s">
@@ -15224,7 +15257,7 @@
       <c r="G255" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H255" s="42" t="s">
+      <c r="H255" s="64" t="s">
         <v>663</v>
       </c>
       <c r="I255" s="42" t="s">
@@ -15251,7 +15284,7 @@
       <c r="G256" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H256" s="42" t="s">
+      <c r="H256" s="64" t="s">
         <v>664</v>
       </c>
       <c r="I256" s="42" t="s">
@@ -15278,7 +15311,7 @@
       <c r="G257" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H257" s="42" t="s">
+      <c r="H257" s="64" t="s">
         <v>665</v>
       </c>
       <c r="I257" s="42" t="s">
@@ -15305,7 +15338,7 @@
       <c r="G258" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H258" s="42" t="s">
+      <c r="H258" s="64" t="s">
         <v>666</v>
       </c>
       <c r="I258" s="42" t="s">
@@ -15332,7 +15365,7 @@
       <c r="G259" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H259" s="42" t="s">
+      <c r="H259" s="64" t="s">
         <v>667</v>
       </c>
       <c r="I259" s="42" t="s">
@@ -15359,7 +15392,7 @@
       <c r="G260" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="H260" s="42" t="s">
+      <c r="H260" s="64" t="s">
         <v>670</v>
       </c>
       <c r="I260" s="42" t="s">
@@ -15389,7 +15422,7 @@
       <c r="G261" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="H261" s="42" t="s">
+      <c r="H261" s="64" t="s">
         <v>668</v>
       </c>
       <c r="I261" s="42" t="s">
@@ -15419,7 +15452,7 @@
       <c r="G262" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H262" s="42" t="s">
+      <c r="H262" s="64" t="s">
         <v>661</v>
       </c>
       <c r="I262" s="3" t="s">
@@ -15445,7 +15478,7 @@
       <c r="G263" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H263" s="42" t="s">
+      <c r="H263" s="64" t="s">
         <v>663</v>
       </c>
       <c r="I263" s="42" t="s">
@@ -15472,7 +15505,7 @@
       <c r="G264" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H264" s="42" t="s">
+      <c r="H264" s="64" t="s">
         <v>663</v>
       </c>
       <c r="I264" s="42" t="s">
@@ -15499,7 +15532,7 @@
       <c r="G265" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H265" s="42" t="s">
+      <c r="H265" s="64" t="s">
         <v>664</v>
       </c>
       <c r="I265" s="42" t="s">
@@ -15526,7 +15559,7 @@
       <c r="G266" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H266" s="42" t="s">
+      <c r="H266" s="64" t="s">
         <v>665</v>
       </c>
       <c r="I266" s="42" t="s">
@@ -15553,7 +15586,7 @@
       <c r="G267" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H267" s="42" t="s">
+      <c r="H267" s="64" t="s">
         <v>666</v>
       </c>
       <c r="I267" s="42" t="s">
@@ -15580,7 +15613,7 @@
       <c r="G268" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H268" s="42" t="s">
+      <c r="H268" s="64" t="s">
         <v>667</v>
       </c>
       <c r="I268" s="42" t="s">
@@ -15607,7 +15640,7 @@
       <c r="G269" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="H269" s="42" t="s">
+      <c r="H269" s="64" t="s">
         <v>669</v>
       </c>
       <c r="I269" s="42" t="s">
@@ -15637,7 +15670,7 @@
       <c r="G270" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="H270" s="42" t="s">
+      <c r="H270" s="64" t="s">
         <v>668</v>
       </c>
       <c r="I270" s="42" t="s">
@@ -15645,7 +15678,7 @@
       </c>
       <c r="J270" s="42"/>
       <c r="M270" s="42" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15659,7 +15692,7 @@
         <v>705</v>
       </c>
       <c r="D271" s="41" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E271" s="13">
         <v>10</v>
@@ -15668,9 +15701,9 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>794</v>
-      </c>
-      <c r="H271" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="H271" s="66" t="s">
         <v>706</v>
       </c>
       <c r="I271" s="41" t="s">
@@ -15690,10 +15723,10 @@
         <v>1000737</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -15704,8 +15737,8 @@
       <c r="G272" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H272" s="42" t="s">
-        <v>748</v>
+      <c r="H272" s="64" t="s">
+        <v>736</v>
       </c>
       <c r="I272" s="41" t="s">
         <v>238</v>
@@ -15719,10 +15752,10 @@
         <v>1000737</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="E273" s="3">
         <v>2</v>
@@ -15733,8 +15766,8 @@
       <c r="G273" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H273" s="42" t="s">
-        <v>749</v>
+      <c r="H273" s="64" t="s">
+        <v>737</v>
       </c>
       <c r="I273" s="41" t="s">
         <v>238</v>
@@ -15748,10 +15781,10 @@
         <v>1000737</v>
       </c>
       <c r="C274" s="64" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="E274" s="3">
         <v>3</v>
@@ -15762,8 +15795,8 @@
       <c r="G274" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H274" s="42" t="s">
-        <v>750</v>
+      <c r="H274" s="64" t="s">
+        <v>738</v>
       </c>
       <c r="I274" s="41" t="s">
         <v>238</v>
@@ -15777,10 +15810,10 @@
         <v>1000737</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="E275" s="3">
         <v>4</v>
@@ -15791,8 +15824,8 @@
       <c r="G275" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H275" s="42" t="s">
-        <v>751</v>
+      <c r="H275" s="64" t="s">
+        <v>739</v>
       </c>
       <c r="I275" s="41" t="s">
         <v>238</v>
@@ -15806,10 +15839,10 @@
         <v>1000737</v>
       </c>
       <c r="C276" s="64" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E276" s="3">
         <v>5</v>
@@ -15820,8 +15853,8 @@
       <c r="G276" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H276" s="42" t="s">
-        <v>752</v>
+      <c r="H276" s="64" t="s">
+        <v>740</v>
       </c>
       <c r="I276" s="41" t="s">
         <v>238</v>
@@ -15835,10 +15868,10 @@
         <v>1000737</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="E277" s="3">
         <v>6</v>
@@ -15849,8 +15882,8 @@
       <c r="G277" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H277" s="42" t="s">
-        <v>753</v>
+      <c r="H277" s="64" t="s">
+        <v>741</v>
       </c>
       <c r="I277" s="41" t="s">
         <v>238</v>
@@ -15864,10 +15897,10 @@
         <v>1000737</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="E278" s="3">
         <v>7</v>
@@ -15878,8 +15911,8 @@
       <c r="G278" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H278" s="42" t="s">
-        <v>754</v>
+      <c r="H278" s="64" t="s">
+        <v>742</v>
       </c>
       <c r="I278" s="41" t="s">
         <v>238</v>
@@ -15893,10 +15926,10 @@
         <v>1000737</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="E279" s="3">
         <v>8</v>
@@ -15907,8 +15940,8 @@
       <c r="G279" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H279" s="42" t="s">
-        <v>755</v>
+      <c r="H279" s="64" t="s">
+        <v>743</v>
       </c>
       <c r="I279" s="41" t="s">
         <v>238</v>
@@ -15922,10 +15955,10 @@
         <v>1000816</v>
       </c>
       <c r="C280" s="64" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="E280" s="3">
         <v>1</v>
@@ -15936,8 +15969,8 @@
       <c r="G280" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="H280" s="42" t="s">
-        <v>796</v>
+      <c r="H280" s="64" t="s">
+        <v>784</v>
       </c>
       <c r="I280" s="41" t="s">
         <v>238</v>
@@ -15946,7 +15979,7 @@
         <v>713</v>
       </c>
       <c r="M280" s="42" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
@@ -15957,10 +15990,10 @@
         <v>1000816</v>
       </c>
       <c r="C281" s="64" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="E281" s="3">
         <v>2</v>
@@ -15971,8 +16004,8 @@
       <c r="G281" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="H281" s="42" t="s">
-        <v>797</v>
+      <c r="H281" s="64" t="s">
+        <v>785</v>
       </c>
       <c r="I281" s="41" t="s">
         <v>238</v>
@@ -15989,10 +16022,10 @@
         <v>1000816</v>
       </c>
       <c r="C282" s="64" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D282" s="42" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="E282" s="3">
         <v>3</v>
@@ -16003,8 +16036,8 @@
       <c r="G282" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="H282" s="42" t="s">
-        <v>798</v>
+      <c r="H282" s="64" t="s">
+        <v>786</v>
       </c>
       <c r="I282" s="41" t="s">
         <v>238</v>
@@ -16021,10 +16054,10 @@
         <v>1000816</v>
       </c>
       <c r="C283" s="64" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D283" s="42" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="E283" s="3">
         <v>4</v>
@@ -16035,8 +16068,8 @@
       <c r="G283" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H283" s="42" t="s">
-        <v>799</v>
+      <c r="H283" s="64" t="s">
+        <v>787</v>
       </c>
       <c r="I283" s="41" t="s">
         <v>238</v>
@@ -16053,10 +16086,10 @@
         <v>1000816</v>
       </c>
       <c r="C284" s="64" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D284" s="42" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="E284" s="3">
         <v>5</v>
@@ -16067,8 +16100,8 @@
       <c r="G284" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H284" s="42" t="s">
-        <v>800</v>
+      <c r="H284" s="64" t="s">
+        <v>788</v>
       </c>
       <c r="I284" s="41" t="s">
         <v>238</v>
@@ -16085,10 +16118,10 @@
         <v>1000816</v>
       </c>
       <c r="C285" s="64" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="E285" s="3">
         <v>6</v>
@@ -16099,8 +16132,8 @@
       <c r="G285" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H285" s="42" t="s">
-        <v>801</v>
+      <c r="H285" s="64" t="s">
+        <v>789</v>
       </c>
       <c r="I285" s="41" t="s">
         <v>238</v>
@@ -16117,10 +16150,10 @@
         <v>1000816</v>
       </c>
       <c r="C286" s="64" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D286" s="42" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="E286" s="3">
         <v>7</v>
@@ -16131,8 +16164,8 @@
       <c r="G286" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="H286" s="42" t="s">
-        <v>802</v>
+      <c r="H286" s="64" t="s">
+        <v>790</v>
       </c>
       <c r="I286" s="41" t="s">
         <v>238</v>
@@ -16149,10 +16182,10 @@
         <v>1000816</v>
       </c>
       <c r="C287" s="64" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D287" s="42" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="E287" s="3">
         <v>8</v>
@@ -16163,8 +16196,8 @@
       <c r="G287" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="H287" s="42" t="s">
-        <v>803</v>
+      <c r="H287" s="64" t="s">
+        <v>791</v>
       </c>
       <c r="I287" s="41" t="s">
         <v>238</v>
@@ -16181,10 +16214,10 @@
         <v>1000816</v>
       </c>
       <c r="C288" s="64" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="D288" s="42" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="E288" s="3">
         <v>9</v>
@@ -16195,8 +16228,8 @@
       <c r="G288" s="41" t="s">
         <v>710</v>
       </c>
-      <c r="H288" s="42" t="s">
-        <v>804</v>
+      <c r="H288" s="64" t="s">
+        <v>792</v>
       </c>
       <c r="I288" s="41" t="s">
         <v>238</v>
@@ -16213,10 +16246,10 @@
         <v>1000816</v>
       </c>
       <c r="C289" s="64" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="D289" s="42" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="E289" s="3">
         <v>10</v>
@@ -16225,10 +16258,10 @@
         <v>1</v>
       </c>
       <c r="G289" s="42" t="s">
-        <v>795</v>
-      </c>
-      <c r="H289" s="42" t="s">
-        <v>805</v>
+        <v>783</v>
+      </c>
+      <c r="H289" s="64" t="s">
+        <v>793</v>
       </c>
       <c r="I289" s="41" t="s">
         <v>238</v>

--- a/config_1.25/activity_ty_task_config.xlsx
+++ b/config_1.25/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="821">
   <si>
     <t>index|索引</t>
   </si>
@@ -4444,10 +4444,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"shop_gold_sum",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5516,26 +5512,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>300,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>50,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5544,10 +5520,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -6095,6 +6067,66 @@
   </si>
   <si>
     <t>"","可在元宝兑奖中兑换奖励",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"可在元宝兑奖中兑换奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"可在元宝兑奖中兑换奖励",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6960,7 +6992,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6977,7 +7009,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -7144,7 +7176,7 @@
         <v>591</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>587</v>
@@ -7158,13 +7190,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -7441,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7461,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7501,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7669,7 +7701,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7681,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -7696,8 +7728,8 @@
   <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7753,7 +7785,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>445</v>
@@ -10700,7 +10732,7 @@
         <v>1000737</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>292</v>
@@ -10712,21 +10744,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="H97" s="66" t="s">
         <v>695</v>
-      </c>
-      <c r="H97" s="66" t="s">
-        <v>696</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K97" s="41"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -10737,10 +10769,10 @@
         <v>1000737</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -10749,16 +10781,16 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I98" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K98" s="41"/>
       <c r="L98" s="41"/>
@@ -10771,10 +10803,10 @@
         <v>1000737</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -10783,16 +10815,16 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K99" s="41"/>
       <c r="L99" s="41"/>
@@ -10805,10 +10837,10 @@
         <v>1000737</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -10817,16 +10849,16 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H100" s="66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I100" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K100" s="41"/>
       <c r="L100" s="41"/>
@@ -10839,7 +10871,7 @@
         <v>1000737</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>293</v>
@@ -10851,16 +10883,16 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K101" s="41"/>
       <c r="L101" s="41"/>
@@ -10873,10 +10905,10 @@
         <v>1000737</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -10885,16 +10917,16 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H102" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I102" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K102" s="41"/>
       <c r="L102" s="41"/>
@@ -10907,10 +10939,10 @@
         <v>1000737</v>
       </c>
       <c r="C103" s="66" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -10919,16 +10951,16 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J103" s="50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K103" s="41"/>
       <c r="L103" s="41"/>
@@ -10941,10 +10973,10 @@
         <v>1000737</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -10953,16 +10985,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I104" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K104" s="41"/>
       <c r="L104" s="41"/>
@@ -10975,10 +11007,10 @@
         <v>1000737</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -10987,16 +11019,16 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K105" s="41"/>
       <c r="L105" s="41"/>
@@ -12234,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H148" s="68" t="s">
         <v>383</v>
@@ -12588,7 +12620,7 @@
         <v>355</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -12834,19 +12866,19 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="H169" s="64" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="I169" s="42" t="s">
         <v>432</v>
@@ -12855,7 +12887,7 @@
       <c r="K169" s="42"/>
       <c r="L169" s="42"/>
       <c r="M169" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -12866,19 +12898,19 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="H170" s="64" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="I170" s="42" t="s">
         <v>432</v>
@@ -12887,7 +12919,7 @@
       <c r="K170" s="42"/>
       <c r="L170" s="42"/>
       <c r="M170" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -12898,19 +12930,19 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H171" s="64" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="I171" s="42" t="s">
         <v>432</v>
@@ -12919,7 +12951,7 @@
       <c r="K171" s="42"/>
       <c r="L171" s="42"/>
       <c r="M171" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -12939,10 +12971,10 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="H172" s="64" t="s">
         <v>802</v>
-      </c>
-      <c r="H172" s="64" t="s">
-        <v>809</v>
       </c>
       <c r="I172" s="42" t="s">
         <v>432</v>
@@ -12951,7 +12983,7 @@
       <c r="K172" s="42"/>
       <c r="L172" s="42"/>
       <c r="M172" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -12971,10 +13003,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H173" s="64" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="I173" s="42" t="s">
         <v>432</v>
@@ -12983,7 +13015,7 @@
       <c r="K173" s="42"/>
       <c r="L173" s="42"/>
       <c r="M173" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -13003,10 +13035,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H174" s="64" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="I174" s="42" t="s">
         <v>432</v>
@@ -13015,7 +13047,7 @@
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
       <c r="M174" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -13035,10 +13067,10 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H175" s="64" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="I175" s="42" t="s">
         <v>432</v>
@@ -13047,7 +13079,7 @@
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
       <c r="M175" s="42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -13067,10 +13099,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="H176" s="64" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="I176" s="42" t="s">
         <v>432</v>
@@ -13096,10 +13128,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H177" s="64" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -13410,7 +13442,7 @@
         <v>536</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J188" s="42"/>
     </row>
@@ -13437,7 +13469,7 @@
         <v>537</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J189" s="42"/>
     </row>
@@ -14413,7 +14445,7 @@
       </c>
       <c r="J224" s="42"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -14443,7 +14475,7 @@
       </c>
       <c r="J225" s="42"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -14473,7 +14505,7 @@
       </c>
       <c r="J226" s="42"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -14503,7 +14535,7 @@
       </c>
       <c r="J227" s="42"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -14533,7 +14565,7 @@
       </c>
       <c r="J228" s="42"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -14563,7 +14595,7 @@
       </c>
       <c r="J229" s="42"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -14583,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H230" s="64" t="s">
         <v>576</v>
@@ -14593,7 +14625,7 @@
       </c>
       <c r="J230" s="42"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -14610,16 +14642,16 @@
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>65</v>
+        <v>811</v>
       </c>
       <c r="H231" s="64" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -14636,17 +14668,20 @@
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>65</v>
+        <v>810</v>
       </c>
       <c r="H232" s="64" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J232" s="42"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M232" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -14663,17 +14698,20 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="H233" s="64" t="s">
-        <v>288</v>
+        <v>817</v>
       </c>
       <c r="I233" s="42" t="s">
         <v>619</v>
       </c>
       <c r="J233" s="42"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M233" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -14690,17 +14728,20 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H234" s="64" t="s">
-        <v>753</v>
+        <v>818</v>
       </c>
       <c r="I234" s="42" t="s">
         <v>619</v>
       </c>
       <c r="J234" s="42"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M234" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -14717,17 +14758,20 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H235" s="64" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I235" s="42" t="s">
         <v>620</v>
       </c>
       <c r="J235" s="42"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M235" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -14744,17 +14788,20 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H236" s="64" t="s">
-        <v>627</v>
+        <v>813</v>
       </c>
       <c r="I236" s="42" t="s">
         <v>621</v>
       </c>
       <c r="J236" s="42"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M236" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -14771,17 +14818,20 @@
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H237" s="64" t="s">
-        <v>288</v>
+        <v>814</v>
       </c>
       <c r="I237" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J237" s="42"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M237" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -14798,17 +14848,20 @@
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H238" s="64" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="I238" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J238" s="42"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M238" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -14825,17 +14878,20 @@
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H239" s="64" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="I239" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J239" s="42"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M239" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -14852,17 +14908,20 @@
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H240" s="64" t="s">
-        <v>757</v>
+        <v>813</v>
       </c>
       <c r="I240" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J240" s="42"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M240" s="42" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -14879,17 +14938,17 @@
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>65</v>
+        <v>812</v>
       </c>
       <c r="H241" s="64" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J241" s="42"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -14906,16 +14965,16 @@
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>65</v>
+        <v>811</v>
       </c>
       <c r="H242" s="64" t="s">
-        <v>751</v>
+        <v>288</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -14932,17 +14991,20 @@
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>65</v>
+        <v>810</v>
       </c>
       <c r="H243" s="64" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J243" s="42"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M243" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -14953,23 +15015,26 @@
         <v>598</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="H244" s="64" t="s">
-        <v>288</v>
+        <v>817</v>
       </c>
       <c r="I244" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J244" s="42"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M244" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -14977,26 +15042,29 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H245" s="64" t="s">
-        <v>753</v>
+        <v>818</v>
       </c>
       <c r="I245" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J245" s="42"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M245" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -15004,26 +15072,29 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H246" s="64" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J246" s="42"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M246" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -15034,23 +15105,26 @@
         <v>592</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H247" s="64" t="s">
-        <v>627</v>
+        <v>813</v>
       </c>
       <c r="I247" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J247" s="42"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M247" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -15067,17 +15141,20 @@
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H248" s="64" t="s">
-        <v>288</v>
+        <v>814</v>
       </c>
       <c r="I248" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J248" s="42"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M248" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -15094,17 +15171,20 @@
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H249" s="64" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="I249" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J249" s="42"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M249" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -15121,17 +15201,20 @@
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H250" s="64" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="I250" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J250" s="42"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M250" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -15148,17 +15231,20 @@
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="H251" s="64" t="s">
-        <v>757</v>
+        <v>813</v>
       </c>
       <c r="I251" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J251" s="42"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M251" s="42" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -15175,17 +15261,17 @@
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>65</v>
+        <v>812</v>
       </c>
       <c r="H252" s="64" t="s">
-        <v>758</v>
+        <v>280</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J252" s="42"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -15193,7 +15279,7 @@
         <v>1000801</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D253" s="42" t="s">
         <v>276</v>
@@ -15205,13 +15291,13 @@
         <v>310</v>
       </c>
       <c r="H253" s="64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -15219,7 +15305,7 @@
         <v>1000802</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D254" s="42" t="s">
         <v>252</v>
@@ -15228,17 +15314,17 @@
         <v>1</v>
       </c>
       <c r="G254" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="H254" s="64" t="s">
         <v>662</v>
-      </c>
-      <c r="H254" s="64" t="s">
-        <v>663</v>
       </c>
       <c r="I254" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J254" s="42"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -15246,7 +15332,7 @@
         <v>1000803</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D255" s="42" t="s">
         <v>594</v>
@@ -15258,14 +15344,14 @@
         <v>310</v>
       </c>
       <c r="H255" s="64" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I255" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J255" s="42"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -15273,10 +15359,10 @@
         <v>1000803</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E256" s="3">
         <v>2</v>
@@ -15285,7 +15371,7 @@
         <v>310</v>
       </c>
       <c r="H256" s="64" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I256" s="42" t="s">
         <v>234</v>
@@ -15300,10 +15386,10 @@
         <v>1000803</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E257" s="3">
         <v>3</v>
@@ -15312,7 +15398,7 @@
         <v>310</v>
       </c>
       <c r="H257" s="64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I257" s="42" t="s">
         <v>234</v>
@@ -15327,7 +15413,7 @@
         <v>1000803</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D258" s="42" t="s">
         <v>596</v>
@@ -15339,7 +15425,7 @@
         <v>310</v>
       </c>
       <c r="H258" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I258" s="42" t="s">
         <v>234</v>
@@ -15354,10 +15440,10 @@
         <v>1000803</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E259" s="3">
         <v>5</v>
@@ -15366,7 +15452,7 @@
         <v>310</v>
       </c>
       <c r="H259" s="64" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I259" s="42" t="s">
         <v>234</v>
@@ -15381,26 +15467,26 @@
         <v>1000803</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E260" s="3">
         <v>6</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H260" s="64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J260" s="42"/>
       <c r="M260" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -15411,26 +15497,26 @@
         <v>1000804</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E261" s="3">
         <v>1</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H261" s="64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J261" s="42"/>
       <c r="M261" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -15441,7 +15527,7 @@
         <v>1000805</v>
       </c>
       <c r="C262" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>276</v>
@@ -15453,7 +15539,7 @@
         <v>310</v>
       </c>
       <c r="H262" s="64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>270</v>
@@ -15467,7 +15553,7 @@
         <v>1000806</v>
       </c>
       <c r="C263" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>252</v>
@@ -15479,7 +15565,7 @@
         <v>310</v>
       </c>
       <c r="H263" s="64" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I263" s="42" t="s">
         <v>272</v>
@@ -15494,10 +15580,10 @@
         <v>1000807</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -15506,7 +15592,7 @@
         <v>310</v>
       </c>
       <c r="H264" s="64" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I264" s="42" t="s">
         <v>237</v>
@@ -15521,10 +15607,10 @@
         <v>1000807</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
@@ -15533,7 +15619,7 @@
         <v>310</v>
       </c>
       <c r="H265" s="64" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I265" s="42" t="s">
         <v>237</v>
@@ -15548,10 +15634,10 @@
         <v>1000807</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E266" s="3">
         <v>3</v>
@@ -15560,7 +15646,7 @@
         <v>310</v>
       </c>
       <c r="H266" s="64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I266" s="42" t="s">
         <v>237</v>
@@ -15575,10 +15661,10 @@
         <v>1000807</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E267" s="3">
         <v>4</v>
@@ -15587,7 +15673,7 @@
         <v>310</v>
       </c>
       <c r="H267" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I267" s="42" t="s">
         <v>237</v>
@@ -15602,10 +15688,10 @@
         <v>1000807</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E268" s="3">
         <v>5</v>
@@ -15614,7 +15700,7 @@
         <v>310</v>
       </c>
       <c r="H268" s="64" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I268" s="42" t="s">
         <v>237</v>
@@ -15629,26 +15715,26 @@
         <v>1000807</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E269" s="3">
         <v>6</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H269" s="64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
       <c r="J269" s="42"/>
       <c r="M269" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -15659,26 +15745,26 @@
         <v>1000808</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D270" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="E270" s="3">
-        <v>1</v>
-      </c>
-      <c r="G270" s="42" t="s">
-        <v>658</v>
-      </c>
       <c r="H270" s="64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J270" s="42"/>
       <c r="M270" s="42" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15689,10 +15775,10 @@
         <v>1000737</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D271" s="41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E271" s="13">
         <v>10</v>
@@ -15701,16 +15787,16 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="H271" s="66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I271" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J271" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K271" s="41"/>
       <c r="L271" s="41"/>
@@ -15723,10 +15809,10 @@
         <v>1000737</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -15738,7 +15824,7 @@
         <v>310</v>
       </c>
       <c r="H272" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I272" s="41" t="s">
         <v>238</v>
@@ -15752,10 +15838,10 @@
         <v>1000737</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E273" s="3">
         <v>2</v>
@@ -15767,7 +15853,7 @@
         <v>294</v>
       </c>
       <c r="H273" s="64" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I273" s="41" t="s">
         <v>238</v>
@@ -15781,10 +15867,10 @@
         <v>1000737</v>
       </c>
       <c r="C274" s="64" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E274" s="3">
         <v>3</v>
@@ -15796,7 +15882,7 @@
         <v>310</v>
       </c>
       <c r="H274" s="64" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I274" s="41" t="s">
         <v>238</v>
@@ -15810,10 +15896,10 @@
         <v>1000737</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E275" s="3">
         <v>4</v>
@@ -15825,7 +15911,7 @@
         <v>294</v>
       </c>
       <c r="H275" s="64" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I275" s="41" t="s">
         <v>238</v>
@@ -15839,10 +15925,10 @@
         <v>1000737</v>
       </c>
       <c r="C276" s="64" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E276" s="3">
         <v>5</v>
@@ -15854,7 +15940,7 @@
         <v>310</v>
       </c>
       <c r="H276" s="64" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I276" s="41" t="s">
         <v>238</v>
@@ -15868,10 +15954,10 @@
         <v>1000737</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E277" s="3">
         <v>6</v>
@@ -15883,7 +15969,7 @@
         <v>294</v>
       </c>
       <c r="H277" s="64" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I277" s="41" t="s">
         <v>238</v>
@@ -15897,10 +15983,10 @@
         <v>1000737</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E278" s="3">
         <v>7</v>
@@ -15912,7 +15998,7 @@
         <v>310</v>
       </c>
       <c r="H278" s="64" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I278" s="41" t="s">
         <v>238</v>
@@ -15926,10 +16012,10 @@
         <v>1000737</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E279" s="3">
         <v>8</v>
@@ -15941,7 +16027,7 @@
         <v>294</v>
       </c>
       <c r="H279" s="64" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I279" s="41" t="s">
         <v>238</v>
@@ -15955,10 +16041,10 @@
         <v>1000816</v>
       </c>
       <c r="C280" s="64" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E280" s="3">
         <v>1</v>
@@ -15967,19 +16053,19 @@
         <v>1</v>
       </c>
       <c r="G280" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H280" s="64" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="I280" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J280" s="50" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M280" s="42" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
@@ -15990,10 +16076,10 @@
         <v>1000816</v>
       </c>
       <c r="C281" s="64" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E281" s="3">
         <v>2</v>
@@ -16002,16 +16088,16 @@
         <v>1</v>
       </c>
       <c r="G281" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H281" s="64" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="I281" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J281" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
@@ -16022,10 +16108,10 @@
         <v>1000816</v>
       </c>
       <c r="C282" s="64" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D282" s="42" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E282" s="3">
         <v>3</v>
@@ -16034,16 +16120,16 @@
         <v>1</v>
       </c>
       <c r="G282" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H282" s="64" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="I282" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J282" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
@@ -16054,10 +16140,10 @@
         <v>1000816</v>
       </c>
       <c r="C283" s="64" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D283" s="42" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E283" s="3">
         <v>4</v>
@@ -16066,16 +16152,16 @@
         <v>1</v>
       </c>
       <c r="G283" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H283" s="64" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="I283" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J283" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
@@ -16086,10 +16172,10 @@
         <v>1000816</v>
       </c>
       <c r="C284" s="64" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D284" s="42" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E284" s="3">
         <v>5</v>
@@ -16098,16 +16184,16 @@
         <v>1</v>
       </c>
       <c r="G284" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H284" s="64" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="I284" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J284" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
@@ -16118,10 +16204,10 @@
         <v>1000816</v>
       </c>
       <c r="C285" s="64" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E285" s="3">
         <v>6</v>
@@ -16130,16 +16216,16 @@
         <v>1</v>
       </c>
       <c r="G285" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H285" s="64" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="I285" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J285" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
@@ -16150,10 +16236,10 @@
         <v>1000816</v>
       </c>
       <c r="C286" s="64" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D286" s="42" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E286" s="3">
         <v>7</v>
@@ -16162,16 +16248,16 @@
         <v>1</v>
       </c>
       <c r="G286" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H286" s="64" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="I286" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J286" s="50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
@@ -16182,10 +16268,10 @@
         <v>1000816</v>
       </c>
       <c r="C287" s="64" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D287" s="42" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="E287" s="3">
         <v>8</v>
@@ -16194,16 +16280,16 @@
         <v>1</v>
       </c>
       <c r="G287" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H287" s="64" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="I287" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J287" s="50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
@@ -16214,10 +16300,10 @@
         <v>1000816</v>
       </c>
       <c r="C288" s="64" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D288" s="42" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E288" s="3">
         <v>9</v>
@@ -16226,16 +16312,16 @@
         <v>1</v>
       </c>
       <c r="G288" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H288" s="64" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="I288" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J288" s="50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -16246,10 +16332,10 @@
         <v>1000816</v>
       </c>
       <c r="C289" s="64" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D289" s="42" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="E289" s="3">
         <v>10</v>
@@ -16258,16 +16344,16 @@
         <v>1</v>
       </c>
       <c r="G289" s="42" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="H289" s="64" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="I289" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J289" s="50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.25/activity_ty_task_config.xlsx
+++ b/config_1.25/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="823">
   <si>
     <t>index|索引</t>
   </si>
@@ -5480,7 +5480,633 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中累计消除1个孙悟空</t>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>288</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>588</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>088</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值298元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值888元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1288元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1588元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2088元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5188元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,15000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,100000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,200000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,500000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,880000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>280000,1280000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>580000,1580000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>080000,2080000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>180000,5180000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"","可以在小游戏苹果大战中使用",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>79,280,281,282,283,284,285,286,287,288</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值赠礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjshxn_czzl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>czzl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值赠礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,66,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可在元宝兑奖中兑换奖励",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"可在元宝兑奖中兑换奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"可在元宝兑奖中兑换奖励",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5488,645 +6114,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中累计消除5个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除10个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>88</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>288</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>588</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>088</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>188</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值8元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值98元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值298元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值888元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1288元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1588元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2088元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5188元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,15000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,100000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,200000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,300000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,500000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,880000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>280000,1280000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>580000,1580000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>080000,2080000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>180000,5180000,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"","可以在小游戏苹果大战中使用",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>79,280,281,282,283,284,285,286,287,288</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值赠礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjshxn_czzl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>czzl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值赠礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,66,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,128,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,128,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>480000,128,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>980000,128,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2980000,128,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4980000,128,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,10000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,20000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可在元宝兑奖中兑换奖励",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0",</t>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"可在元宝兑奖中兑换奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"可在元宝兑奖中兑换奖励",</t>
+    <t>在西游消消乐中累计消除15个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除9个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除30个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6992,7 +7000,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -7009,7 +7017,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -7190,13 +7198,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -7701,7 +7709,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7713,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -7728,8 +7736,8 @@
   <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G246" sqref="G246"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10758,7 +10766,7 @@
       <c r="K97" s="41"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -12875,10 +12883,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H169" s="64" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="I169" s="42" t="s">
         <v>432</v>
@@ -12887,7 +12895,7 @@
       <c r="K169" s="42"/>
       <c r="L169" s="42"/>
       <c r="M169" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -12907,10 +12915,10 @@
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H170" s="64" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="I170" s="42" t="s">
         <v>432</v>
@@ -12919,7 +12927,7 @@
       <c r="K170" s="42"/>
       <c r="L170" s="42"/>
       <c r="M170" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -12939,10 +12947,10 @@
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H171" s="64" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="I171" s="42" t="s">
         <v>432</v>
@@ -12951,7 +12959,7 @@
       <c r="K171" s="42"/>
       <c r="L171" s="42"/>
       <c r="M171" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -12971,10 +12979,10 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H172" s="64" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="I172" s="42" t="s">
         <v>432</v>
@@ -12983,7 +12991,7 @@
       <c r="K172" s="42"/>
       <c r="L172" s="42"/>
       <c r="M172" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -13003,10 +13011,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H173" s="64" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="I173" s="42" t="s">
         <v>432</v>
@@ -13015,7 +13023,7 @@
       <c r="K173" s="42"/>
       <c r="L173" s="42"/>
       <c r="M173" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -13035,10 +13043,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H174" s="64" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="I174" s="42" t="s">
         <v>432</v>
@@ -13047,7 +13055,7 @@
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
       <c r="M174" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -13067,10 +13075,10 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H175" s="64" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="I175" s="42" t="s">
         <v>432</v>
@@ -13079,7 +13087,7 @@
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
       <c r="M175" s="42" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -13099,10 +13107,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H176" s="64" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="I176" s="42" t="s">
         <v>432</v>
@@ -13128,10 +13136,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H177" s="64" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -14642,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H231" s="64" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>338</v>
@@ -14668,17 +14676,17 @@
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H232" s="64" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J232" s="42"/>
       <c r="M232" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
@@ -14698,17 +14706,17 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H233" s="64" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I233" s="42" t="s">
         <v>619</v>
       </c>
       <c r="J233" s="42"/>
       <c r="M233" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -14728,17 +14736,17 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H234" s="64" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I234" s="42" t="s">
         <v>619</v>
       </c>
       <c r="J234" s="42"/>
       <c r="M234" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -14758,17 +14766,17 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H235" s="64" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="I235" s="42" t="s">
         <v>620</v>
       </c>
       <c r="J235" s="42"/>
       <c r="M235" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -14788,17 +14796,17 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H236" s="64" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I236" s="42" t="s">
         <v>621</v>
       </c>
       <c r="J236" s="42"/>
       <c r="M236" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
@@ -14818,17 +14826,17 @@
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="H237" s="64" t="s">
         <v>809</v>
-      </c>
-      <c r="H237" s="64" t="s">
-        <v>814</v>
       </c>
       <c r="I237" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J237" s="42"/>
       <c r="M237" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -14848,17 +14856,17 @@
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H238" s="64" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I238" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J238" s="42"/>
       <c r="M238" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -14878,17 +14886,17 @@
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H239" s="64" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I239" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J239" s="42"/>
       <c r="M239" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
@@ -14908,17 +14916,17 @@
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H240" s="64" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I240" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J240" s="42"/>
       <c r="M240" s="42" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
@@ -14938,10 +14946,10 @@
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H241" s="64" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="I241" s="42" t="s">
         <v>670</v>
@@ -14965,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H242" s="64" t="s">
         <v>288</v>
@@ -14991,17 +14999,17 @@
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H243" s="64" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J243" s="42"/>
       <c r="M243" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -15012,26 +15020,26 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>598</v>
+        <v>744</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>744</v>
+        <v>816</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H244" s="64" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I244" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J244" s="42"/>
       <c r="M244" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
@@ -15042,26 +15050,26 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H245" s="64" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I245" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J245" s="42"/>
       <c r="M245" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -15072,26 +15080,26 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>746</v>
+        <v>817</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H246" s="64" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J246" s="42"/>
       <c r="M246" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
@@ -15102,26 +15110,26 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>592</v>
+        <v>822</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H247" s="64" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I247" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J247" s="42"/>
       <c r="M247" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -15141,17 +15149,17 @@
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="H248" s="64" t="s">
         <v>809</v>
-      </c>
-      <c r="H248" s="64" t="s">
-        <v>814</v>
       </c>
       <c r="I248" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J248" s="42"/>
       <c r="M248" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
@@ -15171,17 +15179,17 @@
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H249" s="64" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I249" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J249" s="42"/>
       <c r="M249" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
@@ -15201,17 +15209,17 @@
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H250" s="64" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I250" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J250" s="42"/>
       <c r="M250" s="42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
@@ -15231,17 +15239,17 @@
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H251" s="64" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I251" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J251" s="42"/>
       <c r="M251" s="42" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -15261,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H252" s="64" t="s">
         <v>280</v>
@@ -15764,7 +15772,7 @@
       </c>
       <c r="J270" s="42"/>
       <c r="M270" s="42" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15787,7 +15795,7 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H271" s="66" t="s">
         <v>705</v>
@@ -15812,7 +15820,7 @@
         <v>719</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -16041,10 +16049,10 @@
         <v>1000816</v>
       </c>
       <c r="C280" s="64" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E280" s="3">
         <v>1</v>
@@ -16056,7 +16064,7 @@
         <v>694</v>
       </c>
       <c r="H280" s="64" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="I280" s="41" t="s">
         <v>238</v>
@@ -16065,7 +16073,7 @@
         <v>712</v>
       </c>
       <c r="M280" s="42" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
@@ -16076,10 +16084,10 @@
         <v>1000816</v>
       </c>
       <c r="C281" s="64" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E281" s="3">
         <v>2</v>
@@ -16091,7 +16099,7 @@
         <v>706</v>
       </c>
       <c r="H281" s="64" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="I281" s="41" t="s">
         <v>238</v>
@@ -16108,10 +16116,10 @@
         <v>1000816</v>
       </c>
       <c r="C282" s="64" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D282" s="42" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E282" s="3">
         <v>3</v>
@@ -16123,7 +16131,7 @@
         <v>706</v>
       </c>
       <c r="H282" s="64" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="I282" s="41" t="s">
         <v>238</v>
@@ -16140,10 +16148,10 @@
         <v>1000816</v>
       </c>
       <c r="C283" s="64" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D283" s="42" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E283" s="3">
         <v>4</v>
@@ -16155,7 +16163,7 @@
         <v>707</v>
       </c>
       <c r="H283" s="64" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="I283" s="41" t="s">
         <v>238</v>
@@ -16172,10 +16180,10 @@
         <v>1000816</v>
       </c>
       <c r="C284" s="64" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D284" s="42" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E284" s="3">
         <v>5</v>
@@ -16187,7 +16195,7 @@
         <v>707</v>
       </c>
       <c r="H284" s="64" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="I284" s="41" t="s">
         <v>238</v>
@@ -16204,10 +16212,10 @@
         <v>1000816</v>
       </c>
       <c r="C285" s="64" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E285" s="3">
         <v>6</v>
@@ -16219,7 +16227,7 @@
         <v>707</v>
       </c>
       <c r="H285" s="64" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="I285" s="41" t="s">
         <v>238</v>
@@ -16236,10 +16244,10 @@
         <v>1000816</v>
       </c>
       <c r="C286" s="64" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D286" s="42" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E286" s="3">
         <v>7</v>
@@ -16251,7 +16259,7 @@
         <v>708</v>
       </c>
       <c r="H286" s="64" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="I286" s="41" t="s">
         <v>238</v>
@@ -16268,10 +16276,10 @@
         <v>1000816</v>
       </c>
       <c r="C287" s="64" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D287" s="42" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E287" s="3">
         <v>8</v>
@@ -16283,7 +16291,7 @@
         <v>708</v>
       </c>
       <c r="H287" s="64" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="I287" s="41" t="s">
         <v>238</v>
@@ -16300,10 +16308,10 @@
         <v>1000816</v>
       </c>
       <c r="C288" s="64" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D288" s="42" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E288" s="3">
         <v>9</v>
@@ -16315,7 +16323,7 @@
         <v>709</v>
       </c>
       <c r="H288" s="64" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I288" s="41" t="s">
         <v>238</v>
@@ -16332,10 +16340,10 @@
         <v>1000816</v>
       </c>
       <c r="C289" s="64" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D289" s="42" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E289" s="3">
         <v>10</v>
@@ -16344,10 +16352,10 @@
         <v>1</v>
       </c>
       <c r="G289" s="42" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H289" s="64" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="I289" s="41" t="s">
         <v>238</v>
